--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,94 +437,70 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>protocol_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>DATFDemo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>protocol_name</t>
+          <t>protocol_connection</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>protocol_connection</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>protocol_results_path</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>protocol_application_name</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>protocol_run_environment</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>protocol_version</t>
+          <t>multiple</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DATFDemo</t>
+          <t>protocol_results_path</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>test/results/</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>protocol_application_name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>etl_pipeline_goldlayer</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>protocol_run_environment</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>protocol_version</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -541,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,11 +1082,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>testcase9_json_parquet_match</t>
+          <t>testcase7_json_json_mismatch</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1154,7 +1130,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
+          <t>test/s2t/source_json_target_json_s2t_7_mismatch.xlsx</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1162,22 +1138,18 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>testcase10_json_parquet_mismatch</t>
+          <t>testcase8_json_json_match</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1221,7 +1193,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>test/s2t/source_json_target_parquet_s2t_10_mismatch.xlsx</t>
+          <t>test/s2t/source_json_target_json_s2t_8_match.xlsx</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1236,11 +1208,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>testcase11_parquet_parquet_match_manual</t>
+          <t>testcase9_json_parquet_match</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1253,110 +1225,38 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>rawpatients</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>RawS3Bucket</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>aws-s3</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>parquet</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>test/data/source</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>test/sql/sourcesql</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>patient_source_parquet_manuel.sql</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>curatedpatients</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>CuratedS3Bucket</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>aws-s3</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>parquet</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>test/data/source</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>test/sql/targetsql</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>patient_target_parquet_manuel_match.sql</t>
-        </is>
-      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
+          <t>test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1370,151 +1270,79 @@
         </is>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>testcase12_parquet_parquet_mismatch_manual</t>
+          <t>testcase10_json_parquet_mismatch</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>rawpatients</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>RawS3Bucket</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>aws-s3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>parquet</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>test/data/source</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>test/sql/sourcesql</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>patient_source_parquet_manuel.sql</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>curatedpatients</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>CuratedS3Bucket</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>aws-s3</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>parquet</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>test/data/source</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>test/sql/targetsql</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>patient_target_parquet_manuel_mismatch.sql</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>test/s2t/source_json_target_parquet_s2t_10_mismatch.xlsx</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>testcase13_csv_parquet_match_manuel</t>
+          <t>testcase11_parquet_parquet_match_manual</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1547,7 +1375,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>delimited</t>
+          <t>parquet</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1557,22 +1385,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>patients_source.csv</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>test/sql/sourcesql</t>
@@ -1580,7 +1404,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>patient_source_delimited_manuel.sql</t>
+          <t>patient_source_parquet_manuel.sql</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1617,7 +1441,11 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="AD12" t="inlineStr">
         <is>
           <t>test/sql/targetsql</t>
@@ -1630,7 +1458,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>test/s2t/source_csv_target_parquet_s2t_5.xlsx</t>
+          <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -1649,19 +1477,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>testcase14_csv_parquet_mismatch_manual</t>
+          <t>testcase12_parquet_parquet_mismatch_manual</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>s2tcompare</t>
+          <t>likeobjectcompare</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1686,7 +1514,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>delimited</t>
+          <t>parquet</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1696,22 +1524,18 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>patients_source.csv</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>test/sql/sourcesql</t>
@@ -1719,7 +1543,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>patient_source_delimited_manuel.sql</t>
+          <t>patient_source_parquet_manuel.sql</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1756,7 +1580,11 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr">
         <is>
           <t>test/sql/targetsql</t>
@@ -1767,11 +1595,7 @@
           <t>patient_target_parquet_manuel_mismatch.sql</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>test/s2t/source_csv_target_parquet_s2t_6_mismatch.xlsx</t>
-        </is>
-      </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -1783,34 +1607,34 @@
         </is>
       </c>
       <c r="AI13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>testcase15_parquet_parquet_match_likeobject</t>
+          <t>testcase13_csv_parquet_match_manuel</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>actualpatients</t>
+          <t>rawpatients</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1825,7 +1649,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>parquet</t>
+          <t>delimited</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1835,19 +1659,35 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>patients_source.csv</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>patient_source_delimited_manuel.sql</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>expectedpatients</t>
+          <t>curatedpatients</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1880,9 +1720,21 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>patient_target_parquet_manuel_match.sql</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>test/s2t/source_csv_target_parquet_s2t_5.xlsx</t>
+        </is>
+      </c>
       <c r="AG14" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -1899,11 +1751,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>testcase16_parquet_parquet_mismatch_likeobject</t>
+          <t>testcase14_csv_parquet_mismatch_manual</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1911,17 +1763,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>actualpatients</t>
+          <t>rawpatients</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1936,7 +1788,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>parquet</t>
+          <t>delimited</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1946,19 +1798,35 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>patients_source.csv</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>patient_source_delimited_manuel.sql</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>expectedpatients</t>
+          <t>curatedpatients</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1978,12 +1846,12 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>test/data/stage</t>
+          <t>test/data/source</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>patients_target_parquet_mismatch</t>
+          <t>patients_source_parquet</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
@@ -1991,9 +1859,21 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>patient_target_parquet_manuel_mismatch.sql</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>test/s2t/source_csv_target_parquet_s2t_6_mismatch.xlsx</t>
+        </is>
+      </c>
       <c r="AG15" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -2010,11 +1890,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>testcase23_parquet_snowflake_mismatch</t>
+          <t>testcase15_parquet_parquet_match_likeobject</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2037,7 +1917,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RawS3Parquet</t>
+          <t>RawS3Bucket</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2063,11 +1943,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -2078,33 +1954,33 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>raw_snowflake_sql_connection</t>
+          <t>CuratedS3Bucket</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>snowflake</t>
+          <t>aws-s3</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>SAMPLE_SRC_PATIENTS</t>
+          <t>patients_source_parquet</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
@@ -2120,16 +1996,16 @@
         </is>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>testcase24_snowflake_snowflake_etljob</t>
+          <t>testcase16_parquet_parquet_mismatch_likeobject</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2147,75 +2023,75 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>patientsrc</t>
+          <t>actualpatients</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>raw_snowflake_sql_connection</t>
+          <t>RawS3Bucket</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>snowflake</t>
+          <t>aws-s3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>SAMPLE_SRC_PATIENTS</t>
+          <t>patients_source_parquet</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>patienttgt</t>
+          <t>expectedpatients</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>raw_snowflake_sql_connection</t>
+          <t>CuratedS3Bucket</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>snowflake</t>
+          <t>aws-s3</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>test/data/stage</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>SAMPLE_TGT_PATIENTS</t>
+          <t>patients_target_parquet_mismatch</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
@@ -2227,20 +2103,20 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>testcase27_csv_csv_bigdata_match</t>
+          <t>testcase17_dbtable_dbtable_match_likeobject</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2248,7 +2124,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>s2tcompare</t>
+          <t>likeobjectcompare</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2256,45 +2132,89 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>start_date, end_date,operation_type,description</t>
+          <t>BIRTHDATE,DEATHDATE</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>start_date, end_date,operation_type,description</t>
+          <t>BIRTHDATE,DEATHDATE</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>test/s2t/s2t_27_csv_csv_bigdata_match.xlsx</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -2302,20 +2222,20 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>id,created_on</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>testcase30_csv_csv_3mill50cols_content</t>
+          <t>testcase18_parquet_dbtable_match_likeobject</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2323,7 +2243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>s2tcompare</t>
+          <t>likeobjectcompare</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2331,56 +2251,1444 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>start_date, end_date,operation_type,description</t>
+          <t>BIRTHDATE,DEATHDATE</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>start_date, end_date,operation_type,description</t>
+          <t>BIRTHDATE,DEATHDATE</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr">
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>testcase19_oracle_mysql_match_manual</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_db</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_19_source_oracle_target_mysql_unprotected.xlsx</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>testcase20_oracle_bigquery_match_manual</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_stg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>indigo-almanac-384011</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>indigo-almanac-384011.atf_data_target.patients_db_target</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>testcase21_csv_bigquery_match</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>delimitedfile</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>test/data/target</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>patients_target.csv</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9.gcp_schema.gcp_patients_src</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_21_csv_bigquery_match.xlsx</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>testcase22_bigquery_bigquery_match</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9.gcp_schema.gcp_patients_src</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9.gcp_schema.gcp_patients_tgt</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>testcase23_parquet_snowflake_mismatch</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RawS3Parquet</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>SAMPLE_SRC_PATIENTS</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>testcase24_snowflake_snowflake_etljob</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>patientsrc</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SAMPLE_SRC_PATIENTS</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>patienttgt</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>SAMPLE_TGT_PATIENTS</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>testcase25_oracle_oracle_etljob</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_db</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>WHERE EXTRACT(MONTH FROM BIRTHDATE) = EXTRACT(MONTH FROM SYSDATE) AND EXTRACT(DAY FROM BIRTHDATE) = EXTRACT(DAY FROM SYSDATE)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>patientswithbirthday</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>sys.orc_notifications</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>testcase26_names_fullname_etljob</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>patientswithnamessplit</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_db</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>patientswithfullname</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_stg</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_26_names_fullname_etljob.xlsx</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>testcase27_csv_csv_bigdata_match</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_27_csv_csv_bigdata_match.xlsx</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>id,created_on</t>
+        </is>
+      </c>
+      <c r="AI28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>testcase28_manual_sql_notifications</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>patientswithbirthdaytoday</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>tc28_oracle_src_query.sql</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>patientswithnotifications</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>tc28_oracle_tgt_query.sql</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>testcase29_manual_sql_fullname</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>patientswithnamessplit</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>tc29_oracle_src_query.sql</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>patientswithfullname</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>tc29_oracle_tgt_query.sql</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>testcase30_csv_csv_3mill50cols_content</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>test/s2t/s2t_30_csv_csv_3mill50cols.xlsx</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>id,created_on</t>
         </is>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI31" t="n">
         <v>8</v>
       </c>
     </row>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,11 @@
       <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>samplelimit</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>dataprofilelimit</t>
         </is>
       </c>
     </row>
@@ -764,6 +769,9 @@
       <c r="AI2" t="n">
         <v>5</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -827,6 +835,9 @@
       <c r="AI3" t="n">
         <v>5</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -890,6 +901,9 @@
       <c r="AI4" t="n">
         <v>5</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -953,6 +967,9 @@
       <c r="AI5" t="n">
         <v>5</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1016,6 +1033,9 @@
       <c r="AI6" t="n">
         <v>5</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1079,6 +1099,9 @@
       <c r="AI7" t="n">
         <v>5</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1142,6 +1165,9 @@
       <c r="AI8" t="n">
         <v>5</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1205,6 +1231,9 @@
       <c r="AI9" t="n">
         <v>5</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1272,6 +1301,9 @@
       <c r="AI10" t="n">
         <v>8</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1335,6 +1367,9 @@
       <c r="AI11" t="n">
         <v>5</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1474,6 +1509,9 @@
       <c r="AI12" t="n">
         <v>5</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1485,7 +1523,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1608,6 +1646,9 @@
       </c>
       <c r="AI13" t="n">
         <v>8</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -1748,6 +1789,9 @@
       <c r="AI14" t="n">
         <v>5</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1886,6 +1930,9 @@
       </c>
       <c r="AI15" t="n">
         <v>5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -1998,6 +2045,9 @@
       <c r="AI16" t="n">
         <v>5</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2080,7 +2130,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>test/data/stage</t>
+          <t>test/data/target</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2109,6 +2159,9 @@
       <c r="AI17" t="n">
         <v>5</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2228,6 +2281,9 @@
       <c r="AI18" t="n">
         <v>5</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2347,6 +2403,9 @@
       <c r="AI19" t="n">
         <v>5</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2469,6 +2528,9 @@
       </c>
       <c r="AI20" t="n">
         <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -2589,6 +2651,9 @@
       <c r="AI21" t="n">
         <v>8</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2715,6 +2780,9 @@
       </c>
       <c r="AI22" t="n">
         <v>8</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -2835,6 +2903,9 @@
       <c r="AI23" t="n">
         <v>5</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2950,6 +3021,9 @@
       <c r="AI24" t="n">
         <v>8</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2961,7 +3035,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3060,6 +3134,9 @@
       </c>
       <c r="AI25" t="n">
         <v>8</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3180,6 +3257,9 @@
       <c r="AI26" t="n">
         <v>5</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3302,6 +3382,9 @@
       </c>
       <c r="AI27" t="n">
         <v>8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -3378,6 +3461,9 @@
       <c r="AI28" t="n">
         <v>8</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3497,6 +3583,9 @@
       <c r="AI29" t="n">
         <v>8</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3615,6 +3704,9 @@
       </c>
       <c r="AI30" t="n">
         <v>8</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -3691,6 +3783,119 @@
       <c r="AI31" t="n">
         <v>8</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>testcase31_snowflake_parquet_validation</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>rtpcr_source</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>rtpcr_diagnostic_lab_testing</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>rtpcr_target</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>test/data/target</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>patients_target_parquet_mismatch</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_31_snowflake_parquet_val.xlsx</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>id,state</t>
+        </is>
+      </c>
+      <c r="AI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -757,7 +757,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
+          <t>test/s2t/s2t_1_parquet_parquet_mismatch.xlsx</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -765,7 +765,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI2" t="n">
         <v>5</v>
       </c>
@@ -823,7 +827,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>test/s2t/source_parquet_target_parquet_s2t_2.xlsx</t>
+          <t>test/s2t/s2t_2_parquet_parquet_match.xlsx</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -831,7 +835,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI3" t="n">
         <v>5</v>
       </c>
@@ -897,7 +905,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI4" t="n">
         <v>5</v>
       </c>
@@ -963,7 +975,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI5" t="n">
         <v>5</v>
       </c>
@@ -1021,7 +1037,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>test/s2t/source_csv_target_parquet_s2t_5.xlsx</t>
+          <t>test/s2t/s2t_5_csv_parquet_match.xlsx</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1029,7 +1045,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI6" t="n">
         <v>5</v>
       </c>
@@ -1087,7 +1107,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>test/s2t/source_csv_target_parquet_s2t_6_mismatch.xlsx</t>
+          <t>test/s2t/s2t_6_csv_parquet_mismatch.xlsx</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1095,7 +1115,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI7" t="n">
         <v>5</v>
       </c>
@@ -1161,7 +1185,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
@@ -1227,7 +1255,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI9" t="n">
         <v>5</v>
       </c>
@@ -1355,7 +1387,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>test/s2t/source_json_target_parquet_s2t_10_mismatch.xlsx</t>
+          <t>test/s2t/s2t_10_json_parquet_match.xlsx</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -1363,7 +1395,11 @@
           <t>source_to_target</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="AI11" t="n">
         <v>5</v>
       </c>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/datf_core/test/testprotocol/testselection_template.xlsx
+++ b/datf_core/test/testprotocol/testselection_template.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,15 +713,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>testcase23_parquet_snowflake_mismatch</t>
+          <t>testcase1_parquet_parquet_mismatch</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -729,85 +729,37 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>actualpatients</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>RawS3Parquet</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>aws-s3</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>parquet</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>test/data/source</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>patients_source_parquet</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>expectedpatients</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>raw_snowflake_sql_connection</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>snowflake</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SAMPLE_SRC_PATIENTS</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_1_parquet_parquet_mismatch.xlsx</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -819,7 +771,7 @@
         </is>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -831,15 +783,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>testcase24_snowflake_snowflake_etljob</t>
+          <t>testcase2_parquet_parquet_match</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -847,81 +799,37 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>patientsrc</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>raw_snowflake_sql_connection</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>snowflake</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>SAMPLE_SRC_PATIENTS</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>patienttgt</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>raw_snowflake_sql_connection</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>snowflake</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>SAMPLE_TGT_PATIENTS</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>BIRTHDATE,DEATHDATE</t>
-        </is>
-      </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_2_parquet_parquet_match.xlsx</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -929,11 +837,11 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -945,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>testcase25_oracle_oracle_etljob</t>
+          <t>testcase3_csv_csv_match</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -953,7 +861,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -961,81 +869,25 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>actualpatients</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>OracleDemoTiger</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>sys.orc_patients_db</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>WHERE EXTRACT(MONTH FROM BIRTHDATE) = EXTRACT(MONTH FROM SYSDATE) AND EXTRACT(DAY FROM BIRTHDATE) = EXTRACT(DAY FROM SYSDATE)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>patientswithbirthday</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>OracleDemoTiger</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>sys.orc_notifications</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -1043,7 +895,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>test/s2t/source_csv_target_csv_s2t_3.xlsx</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -1051,7 +907,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI4" t="n">
@@ -1067,7 +923,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>testcase26_names_fullname_etljob</t>
+          <t>testcase4_csv_csv_mismatch</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1083,91 +939,35 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>patientswithnamessplit</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>OracleDemoTiger</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>sys.orc_patients_db</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>patientswithfullname</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>OracleDemoTiger</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>sys.orc_patients_stg</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
-        </is>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>test/s2t/s2t_26_names_fullname_etljob.xlsx</t>
+          <t>test/s2t/source_csv_target_csv_s2t_4.xlsx</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1177,11 +977,11 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1193,7 +993,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>testcase28_manual_sql_notifications</t>
+          <t>testcase5_csv_parquet_match</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1201,97 +1001,45 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>patientswithbirthdaytoday</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>test/sql/sourcesql</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>tc28_oracle_src_query.sql</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>patientswithnotifications</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>test/sql/targetsql</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>tc28_oracle_tgt_query.sql</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_5_csv_parquet_match.xlsx</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -1299,11 +1047,11 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1315,7 +1063,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>testcase29_manual_sql_fullname</t>
+          <t>testcase6_csv_parquet_mismatch</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1323,97 +1071,45 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>patientswithnamessplit</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>test/sql/sourcesql</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>tc29_oracle_src_query.sql</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>patientswithfullname</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>raw_oracle_database_connection</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>test/sql/targetsql</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>tc29_oracle_tgt_query.sql</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_6_csv_parquet_mismatch.xlsx</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -1421,11 +1117,11 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1437,7 +1133,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>testcase31_snowflake_parquet_validation</t>
+          <t>testcase7_json_json_mismatch</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1445,7 +1141,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1453,32 +1149,12 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>rtpcr_source</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>raw_snowflake_sql_connection</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>snowflake</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>rtpcr_diagnostic_lab_testing</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1486,32 +1162,12 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>rtpcr_target</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>aws-s3</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>parquet</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>test/data/target</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>patients_target_parquet_mismatch</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1521,7 +1177,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>test/s2t/s2t_31_snowflake_parquet_val.xlsx</t>
+          <t>test/s2t/source_json_target_json_s2t_7_mismatch.xlsx</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1531,14 +1187,14 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>id,state</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1547,7 +1203,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>testcase32_snowflake_snowflake_validation</t>
+          <t>testcase8_json_json_match</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1555,7 +1211,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>likeobjectcompare</t>
+          <t>s2tcompare</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1563,32 +1219,12 @@
           <t>Auto</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>rtpcr_source</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>raw_snowflake_sql_connection</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>snowflake</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>rtpcr_diagnostic_lab_testing</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1596,32 +1232,12 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>nyc_airbnb_target</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>raw_snowflake_sql_connection</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>snowflake</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>NYC_AIRBNB_DATA</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1629,7 +1245,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>test/s2t/source_json_target_json_s2t_8_match.xlsx</t>
+        </is>
+      </c>
       <c r="AG9" t="inlineStr">
         <is>
           <t>source_to_target</t>
@@ -1637,14 +1257,2680 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>state,id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AI9" t="n">
         <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>testcase9_json_parquet_match</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>testcase10_json_parquet_mismatch</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_10_json_parquet_match.xlsx</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>testcase11_parquet_parquet_match_manual</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>rawpatients</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>patient_source_parquet_manuel.sql</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>curatedpatients</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>CuratedS3Bucket</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>patient_target_parquet_manuel_match.sql</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>testcase12_parquet_parquet_mismatch_manual</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>rawpatients</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>patient_source_parquet_manuel.sql</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>curatedpatients</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>CuratedS3Bucket</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>patient_target_parquet_manuel_mismatch.sql</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>testcase13_csv_parquet_match_manuel</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>rawpatients</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>delimited</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>patients_source.csv</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>patient_source_delimited_manuel.sql</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>curatedpatients</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>CuratedS3Bucket</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>patient_target_parquet_manuel_match.sql</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>test/s2t/source_csv_target_parquet_s2t_5.xlsx</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>testcase14_csv_parquet_mismatch_manual</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>rawpatients</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>delimited</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>patients_source.csv</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>patient_source_delimited_manuel.sql</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>curatedpatients</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>CuratedS3Bucket</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>patient_target_parquet_manuel_mismatch.sql</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>test/s2t/source_csv_target_parquet_s2t_6_mismatch.xlsx</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>testcase15_parquet_parquet_match_likeobject</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>CuratedS3Bucket</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>testcase16_parquet_parquet_mismatch_likeobject</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>CuratedS3Bucket</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>test/data/target</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>patients_target_parquet_mismatch</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>testcase17_dbtable_dbtable_match_likeobject</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>testcase18_parquet_dbtable_match_likeobject</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RawS3Bucket</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>testcase19_oracle_mysql_match_manual</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_db</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>raw_mysql_database_connection</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>patients_db</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>patients</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_19_source_oracle_target_mysql_unprotected.xlsx</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>testcase20_oracle_bigquery_match_manual</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_stg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>indigo-almanac-384011</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>indigo-almanac-384011.atf_data_target.patients_db_target</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>testcase21_csv_bigquery_match</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>delimitedfile</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>test/data/target</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>patients_target.csv</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9.gcp_schema.gcp_patients_src</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_21_csv_bigquery_match.xlsx</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>testcase22_bigquery_bigquery_match</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9.gcp_schema.gcp_patients_src</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>raw_bigquery_credentials</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>bigquery</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>driven-slice-423611-i9.gcp_schema.gcp_patients_tgt</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>testcase23_parquet_snowflake_mismatch</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RawS3Parquet</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>test/data/source</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>patients_source_parquet</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>expectedpatients</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>SAMPLE_SRC_PATIENTS</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AI24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>testcase24_snowflake_snowflake_etljob</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>patientsrc</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SAMPLE_SRC_PATIENTS</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>patienttgt</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>SAMPLE_TGT_PATIENTS</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>BIRTHDATE,DEATHDATE</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>testcase25_oracle_oracle_etljob</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>actualpatients</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_db</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>WHERE EXTRACT(MONTH FROM BIRTHDATE) = EXTRACT(MONTH FROM SYSDATE) AND EXTRACT(DAY FROM BIRTHDATE) = EXTRACT(DAY FROM SYSDATE)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>patientswithbirthday</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>sys.orc_notifications</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>testcase26_names_fullname_etljob</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>patientswithnamessplit</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_db</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>patientswithfullname</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>OracleDemoTiger</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>sys.orc_patients_stg</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_26_names_fullname_etljob.xlsx</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>testcase27_csv_csv_bigdata_match</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_27_csv_csv_bigdata_match.xlsx</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>id,created_on</t>
+        </is>
+      </c>
+      <c r="AI28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>testcase28_manual_sql_notifications</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>patientswithbirthdaytoday</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>tc28_oracle_src_query.sql</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>patientswithnotifications</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>tc28_oracle_tgt_query.sql</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>testcase29_manual_sql_fullname</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>patientswithnamessplit</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>test/sql/sourcesql</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>tc29_oracle_src_query.sql</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>patientswithfullname</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>raw_oracle_database_connection</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>test/sql/targetsql</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>tc29_oracle_tgt_query.sql</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="AI30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>testcase30_csv_csv_3mill50cols_content</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>s2tcompare</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>start_date, end_date,operation_type,description</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_30_csv_csv_3mill50cols.xlsx</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>id,created_on</t>
+        </is>
+      </c>
+      <c r="AI31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>testcase31_snowflake_parquet_validation</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>likeobjectcompare</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>rtpcr_source</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>raw_snowflake_sql_connection</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>snowflake</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>rtpcr_diagnostic_lab_testing</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>rtpcr_target</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>aws-s3</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>parquet</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>test/data/target</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>patients_target_parquet_mismatch</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>test/s2t/s2t_31_snowflake_parquet_val.xlsx</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>source_to_target</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>id,state</t>
+        </is>
+      </c>
+      <c r="AI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
